--- a/Acceptance Testing Test Cases.xlsx
+++ b/Acceptance Testing Test Cases.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NP\Y3Semester2\Devops\ASG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\NP\Y3Semester2\Devops\ASG\DevOps_Oct2023_TeamC_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2916EB53-4591-411D-97F2-19E1FB217381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B601676-CD7F-4115-B739-D42EE8D05C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Create New Account" sheetId="2" r:id="rId2"/>
+    <sheet name="Create New Capstone Entry" sheetId="3" r:id="rId3"/>
+    <sheet name="Account Managemnet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
   <si>
     <t>Test Case</t>
   </si>
@@ -73,21 +75,9 @@
     <t>Able to launch website</t>
   </si>
   <si>
-    <t>Able to enter input field 'Username'</t>
-  </si>
-  <si>
-    <t>Able to enter input field 'Password'</t>
-  </si>
-  <si>
-    <t>Able to view User page</t>
-  </si>
-  <si>
     <t>Able to view Administrator page</t>
   </si>
   <si>
-    <t>Able to click on 'Create New Account' button</t>
-  </si>
-  <si>
     <t>Able to click on 'Logout' button</t>
   </si>
   <si>
@@ -124,40 +114,112 @@
     <t>Able to click on 'Cancel' button in User page</t>
   </si>
   <si>
-    <t>Able to click on 'Cancel' button on Create Accoumt</t>
-  </si>
-  <si>
     <t>Able to click on 'Account Management' button in User page</t>
   </si>
   <si>
     <t xml:space="preserve">Able to click on 'Return' button in Account Management </t>
   </si>
   <si>
-    <t>Able to enter input field 'Username' in Login page</t>
-  </si>
-  <si>
-    <t>Able to enter input field 'Password' in Login page</t>
-  </si>
-  <si>
-    <t>Able to click on 'Login' button in Login page</t>
-  </si>
-  <si>
-    <t>Able to click on 'Register Account' button in Login Page</t>
-  </si>
-  <si>
     <t>Wrote wrong 'Password' in Login Page</t>
   </si>
   <si>
     <t>Wrote wrong 'Username' in Login Page</t>
   </si>
   <si>
-    <t>Click on 'Login' button while username is blank</t>
-  </si>
-  <si>
-    <t>Click on 'Login' button while password is blank</t>
-  </si>
-  <si>
     <t>Negative</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Website launched in chrome</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Able to click on 'Cancel' button on Create Account page</t>
+  </si>
+  <si>
+    <t>Entered non-existent 'password' and existing 'username'  in Login Page</t>
+  </si>
+  <si>
+    <t>Entered non-existent 'username' and existing 'password'  in Login Page</t>
+  </si>
+  <si>
+    <t>Entered blank for both input fields in Login Page</t>
+  </si>
+  <si>
+    <t>Entered existing 'username' in Login page</t>
+  </si>
+  <si>
+    <t>Entered existing  'password' in Login page</t>
+  </si>
+  <si>
+    <t>Launch website</t>
+  </si>
+  <si>
+    <t>Click on 'Login' button in Welcome page</t>
+  </si>
+  <si>
+    <t>Click on 'Login' button in Login page</t>
+  </si>
+  <si>
+    <t>View User page (if user)</t>
+  </si>
+  <si>
+    <t>View Administrator page (if administrator)</t>
+  </si>
+  <si>
+    <t>Click on 'Logout' button</t>
+  </si>
+  <si>
+    <t>Click on 'Create New Account' button in Login Page</t>
+  </si>
+  <si>
+    <t>Entered new 'username' in Login page</t>
+  </si>
+  <si>
+    <t>Entered new  'password' in Login page</t>
+  </si>
+  <si>
+    <t>Click on 'Create New Account' button in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Click on 'Create' button in User page</t>
+  </si>
+  <si>
+    <t>Click on 'Save' button in User page</t>
+  </si>
+  <si>
+    <t>Click on 'Cancel' button in User page</t>
+  </si>
+  <si>
+    <t>Entered non-existent 'username' and existing 'password'  in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Entered non-existent 'password' and existing 'username'  in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Entered blank for both input fields in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Entered 'username' as blank and existing 'password' in Login Page</t>
+  </si>
+  <si>
+    <t>Entered 'username' and 'password' (not associated with each other) in Login Page</t>
+  </si>
+  <si>
+    <t>Entered 'password' as blank and existing 'username' in Login Page</t>
+  </si>
+  <si>
+    <t>Entered 'username' and 'password' (not associated with each other) in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Entered 'username' as blank and existing 'password' in Create New Account Page</t>
+  </si>
+  <si>
+    <t>Entered 'password' as blank and existing 'username' in Create New Account Page</t>
   </si>
 </sst>
 </file>
@@ -475,20 +537,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="68" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -546,7 +607,19 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -557,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -568,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -579,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -590,7 +663,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -601,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -612,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -623,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -631,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -642,10 +715,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -653,10 +726,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,10 +737,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -675,10 +748,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -686,10 +759,548 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58470783-24C4-42FA-BAF1-B783EF01713F}">
+  <dimension ref="A2:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="55.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603D248F-CC83-4B82-BDD5-738E9670A7A7}">
+  <dimension ref="A2:K34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="55.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -699,9 +1310,6 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -710,9 +1318,6 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -721,9 +1326,6 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -732,9 +1334,6 @@
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -743,9 +1342,6 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -754,9 +1350,6 @@
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -765,9 +1358,6 @@
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -776,9 +1366,6 @@
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -787,9 +1374,6 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -798,9 +1382,6 @@
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -809,19 +1390,13 @@
       <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,32 +1404,78 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425EEAA7-6976-43B4-A9D1-FDB3E0D4B0FD}">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
